--- a/Tests API/TestLaravel.xlsx
+++ b/Tests API/TestLaravel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\adoclic\Tests API\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de prueba" sheetId="5" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Fecha</t>
   </si>
@@ -154,13 +154,6 @@
     <t>Laravel -2</t>
   </si>
   <si>
-    <t xml:space="preserve">1- Ingresar a Visual Code
-2- Abrir el proyecto adoclic 
-3- Abrir la terminal del proyecto
-4- ingresar el comando "php artisan test --filter CategoryTest" 5- Revisar el resultado en la terminal                                        6-Ingresar a phpmyadmin en xammp                                                 7-Revisar que la tabla se haya creado correctamente en la BD.
-</t>
-  </si>
-  <si>
     <t>Se debe poder crear una instancia de categoría y la data ingresada debe ser valida.</t>
   </si>
   <si>
@@ -174,13 +167,6 @@
   </si>
   <si>
     <t>EntityTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Ingresar a Visual Code
-2- Abrir el proyecto adoclic 
-3- Abrir la terminal del proyecto
-4- ingresar el comando "php artisan test --filter EntityTest"                                                                                              5- Revisar el resultado en la terminal                                                                                                                                                                              6-Ingresar a phpmyadmin en xammp                                                                                                                                       7-Revisar que la tabla se haya creado correctamente en la BD.
-</t>
   </si>
   <si>
     <t>Se crea la instancia de entity y la data es valida.</t>
@@ -244,6 +230,38 @@
   </si>
   <si>
     <t>Proyecto: Laravel Test</t>
+  </si>
+  <si>
+    <t>Nota:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para la realización de los tests se utilizan los comandos especificados : </t>
+  </si>
+  <si>
+    <t>php artisan test --filter CategoryTest</t>
+  </si>
+  <si>
+    <t>php artisan test --filter EntityTest</t>
+  </si>
+  <si>
+    <t>php artisan test --filter ApiServiceTest</t>
+  </si>
+  <si>
+    <t>* De esta manera se correran las pruebas unitarias diseñadas para el test de los requisitos presentados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Ingresar a Visual Code
+2- Abrir el proyecto adoclic 
+3- Abrir la terminal del proyecto
+4- ingresar el comando "php artisan test --filter CategoryTest" 5- Revisar el resultado en la terminal                                        6-Ingresar a phpmyadmin en xammp                                                 7-Revisar que la instancia se haya creado correctamente en la BD.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Ingresar a Visual Code
+2- Abrir el proyecto adoclic 
+3- Abrir la terminal del proyecto
+4- ingresar el comando "php artisan test --filter EntityTest"                                                                                              5- Revisar el resultado en la terminal                                                                                                                                                                              6-Ingresar a phpmyadmin en xammp                                                                                                                                       7-Revisar que la instancia se haya creado correctamente en la BD.
+</t>
   </si>
 </sst>
 </file>
@@ -379,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -404,19 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -477,6 +482,20 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -506,7 +525,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>159843</xdr:rowOff>
     </xdr:to>
@@ -818,19 +837,19 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
@@ -898,12 +917,12 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -929,8 +948,8 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -956,12 +975,12 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="17" t="s">
-        <v>54</v>
+      <c r="D5" s="12" t="s">
+        <v>52</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1012,7 +1031,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1"/>
@@ -1064,37 +1083,37 @@
     </row>
     <row r="9" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M9" s="5"/>
@@ -1141,34 +1160,34 @@
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>24</v>
+      <c r="I11" s="16" t="s">
+        <v>34</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>28</v>
+      <c r="J11" s="27" t="s">
+        <v>35</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="27" t="s">
         <v>12</v>
       </c>
       <c r="M11" s="1"/>
@@ -1186,37 +1205,37 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="23">
+      <c r="B12" s="18">
         <v>2</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="G12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="I12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="J12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="M12" s="1"/>
@@ -1237,34 +1256,34 @@
       <c r="B13" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="F13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="H13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="I13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="29" t="s">
         <v>12</v>
       </c>
       <c r="M13" s="1"/>
@@ -1362,12 +1381,15 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1395,7 +1417,9 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1423,7 +1447,9 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1446,12 +1472,9 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1475,7 +1498,6 @@
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1502,7 +1524,9 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -28959,8 +28983,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29038,10 +29062,10 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -29069,8 +29093,8 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -29097,9 +29121,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -29124,8 +29148,8 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="17" t="s">
-        <v>54</v>
+      <c r="D6" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -29208,20 +29232,20 @@
     </row>
     <row r="9" spans="1:26" ht="36" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>50</v>
+      <c r="D9" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>51</v>
+      <c r="F9" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>2</v>
@@ -29229,7 +29253,7 @@
       <c r="H9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -29293,41 +29317,41 @@
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="J11" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>53</v>
+      <c r="N11" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
